--- a/src/main/java/com/ILab/testData/iLabTestData.xlsx
+++ b/src/main/java/com/ILab/testData/iLabTestData.xlsx
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="9" uniqueCount="8">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="6" uniqueCount="6">
   <si>
     <t xml:space="preserve">CandidateName</t>
   </si>
@@ -28,16 +28,10 @@
     <t xml:space="preserve">CandidateSurname</t>
   </si>
   <si>
-    <t xml:space="preserve">CandidateEmail</t>
-  </si>
-  <si>
     <t xml:space="preserve">Walter</t>
   </si>
   <si>
     <t xml:space="preserve">Mashegoane</t>
-  </si>
-  <si>
-    <t xml:space="preserve">automationAssessment@iLABQuality.com</t>
   </si>
   <si>
     <t xml:space="preserve">Moruthane</t>
@@ -58,6 +52,7 @@
       <sz val="10"/>
       <name val="Arial"/>
       <family val="2"/>
+      <charset val="1"/>
     </font>
     <font>
       <sz val="10"/>
@@ -122,7 +117,7 @@
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
-    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="true" applyBorder="false" applyAlignment="false" applyProtection="false">
+    <xf numFmtId="164" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="false" applyBorder="false" applyAlignment="true" applyProtection="true">
       <alignment horizontal="general" vertical="bottom" textRotation="0" wrapText="false" indent="0" shrinkToFit="false"/>
       <protection locked="true" hidden="false"/>
     </xf>
@@ -143,49 +138,39 @@
   <sheetPr filterMode="false">
     <pageSetUpPr fitToPage="false"/>
   </sheetPr>
-  <dimension ref="A1:C3"/>
+  <dimension ref="A1:B3"/>
   <sheetViews>
     <sheetView showFormulas="false" showGridLines="true" showRowColHeaders="true" showZeros="true" rightToLeft="false" tabSelected="true" showOutlineSymbols="true" defaultGridColor="true" view="normal" topLeftCell="A1" colorId="64" zoomScale="100" zoomScaleNormal="100" zoomScalePageLayoutView="100" workbookViewId="0">
-      <selection pane="topLeft" activeCell="C9" activeCellId="0" sqref="C9"/>
+      <selection pane="topLeft" activeCell="D10" activeCellId="0" sqref="D10"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="11.53515625" defaultRowHeight="12.8" zeroHeight="false" outlineLevelRow="0" outlineLevelCol="0"/>
   <cols>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="0" width="16.12"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="0" width="17.51"/>
-    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="3" min="3" style="0" width="39.25"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="1" min="1" style="1" width="16.12"/>
+    <col collapsed="false" customWidth="true" hidden="false" outlineLevel="0" max="2" min="2" style="1" width="17.51"/>
   </cols>
   <sheetData>
     <row r="1" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A1" s="0" t="s">
+      <c r="A1" s="1" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="0" t="s">
+      <c r="B1" s="1" t="s">
         <v>1</v>
-      </c>
-      <c r="C1" s="0" t="s">
-        <v>2</v>
       </c>
     </row>
     <row r="2" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A2" s="0" t="s">
+      <c r="A2" s="1" t="s">
+        <v>2</v>
+      </c>
+      <c r="B2" s="1" t="s">
         <v>3</v>
-      </c>
-      <c r="B2" s="0" t="s">
-        <v>4</v>
-      </c>
-      <c r="C2" s="1" t="s">
-        <v>5</v>
       </c>
     </row>
     <row r="3" customFormat="false" ht="12.8" hidden="false" customHeight="false" outlineLevel="0" collapsed="false">
-      <c r="A3" s="0" t="s">
-        <v>6</v>
+      <c r="A3" s="1" t="s">
+        <v>4</v>
       </c>
-      <c r="B3" s="0" t="s">
-        <v>7</v>
-      </c>
-      <c r="C3" s="1" t="s">
+      <c r="B3" s="1" t="s">
         <v>5</v>
       </c>
     </row>
